--- a/excel/curso.xlsx
+++ b/excel/curso.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpIsa\pruebaexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Incidencias_EVG\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Grupo</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>ESO</t>
+  </si>
+  <si>
+    <t>DAW2</t>
+  </si>
+  <si>
+    <t>2º Desarrollo de Aplicaciones Web</t>
+  </si>
+  <si>
+    <t>CFGS</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,16 +129,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -481,6 +502,20 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/curso.xlsx
+++ b/excel/curso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Incidencias_EVG\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_isa\Incidencias_EVG\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Grupo</t>
   </si>
@@ -63,13 +63,121 @@
   </si>
   <si>
     <t>CFGS</t>
+  </si>
+  <si>
+    <t>ESO1A</t>
+  </si>
+  <si>
+    <t>ESO1B</t>
+  </si>
+  <si>
+    <t>ESO1C</t>
+  </si>
+  <si>
+    <t>ESO2A</t>
+  </si>
+  <si>
+    <t>ESO2B</t>
+  </si>
+  <si>
+    <t>ESO2C</t>
+  </si>
+  <si>
+    <t>ESO3A</t>
+  </si>
+  <si>
+    <t>ESO3B</t>
+  </si>
+  <si>
+    <t>ESO3C</t>
+  </si>
+  <si>
+    <t>ESO4B</t>
+  </si>
+  <si>
+    <t>ESO4A</t>
+  </si>
+  <si>
+    <t>ESO4C</t>
+  </si>
+  <si>
+    <t>BC2A</t>
+  </si>
+  <si>
+    <t>BC2B</t>
+  </si>
+  <si>
+    <t>2º de Bachillerato (Ciencias)</t>
+  </si>
+  <si>
+    <t>2º de Bachillerato (Humanidades y Ciencias Sociales)</t>
+  </si>
+  <si>
+    <t>1º de la ESO A</t>
+  </si>
+  <si>
+    <t>1º de la ESO B</t>
+  </si>
+  <si>
+    <t>1º de la ESO C</t>
+  </si>
+  <si>
+    <t>2º de la ESO A</t>
+  </si>
+  <si>
+    <t>2º de la ESO B</t>
+  </si>
+  <si>
+    <t>2º de la ESO C</t>
+  </si>
+  <si>
+    <t>3º de la ESO A</t>
+  </si>
+  <si>
+    <t>3º de la ESO B</t>
+  </si>
+  <si>
+    <t>3º de la ESO C</t>
+  </si>
+  <si>
+    <t>4º de la ESO A</t>
+  </si>
+  <si>
+    <t>4º de la ESO B</t>
+  </si>
+  <si>
+    <t>4º de la ESO C</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>DAW1</t>
+  </si>
+  <si>
+    <t>1º de Desarrollo de Aplicaciones Web</t>
+  </si>
+  <si>
+    <t>1º de Sistemas Microinformaticos y Redes</t>
+  </si>
+  <si>
+    <t>CFGM</t>
+  </si>
+  <si>
+    <t>SMR1</t>
+  </si>
+  <si>
+    <t>SMR2</t>
+  </si>
+  <si>
+    <t>2º de Sistemas Microinformaticos y Redes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +202,18 @@
     <font>
       <sz val="14"/>
       <color rgb="FF0033CC"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -145,12 +265,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,59 +585,238 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/excel/curso.xlsx
+++ b/excel/curso.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\php_isa\Incidencias_EVG\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,78 +26,42 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
-    <t>ESO1A</t>
-  </si>
-  <si>
     <t>1º de la ESO A</t>
   </si>
   <si>
     <t>ESO</t>
   </si>
   <si>
-    <t>ESO1B</t>
-  </si>
-  <si>
     <t>1º de la ESO B</t>
   </si>
   <si>
-    <t>ESO1C</t>
-  </si>
-  <si>
     <t>1º de la ESO C</t>
   </si>
   <si>
-    <t>ESO2A</t>
-  </si>
-  <si>
     <t>2º de la ESO A</t>
   </si>
   <si>
-    <t>ESO2B</t>
-  </si>
-  <si>
     <t>2º de la ESO B</t>
   </si>
   <si>
-    <t>ESO2C</t>
-  </si>
-  <si>
     <t>2º de la ESO C</t>
   </si>
   <si>
-    <t>ESO3A</t>
-  </si>
-  <si>
     <t>3º de la ESO A</t>
   </si>
   <si>
-    <t>ESO3B</t>
-  </si>
-  <si>
     <t>3º de la ESO B</t>
   </si>
   <si>
-    <t>ESO3C</t>
-  </si>
-  <si>
     <t>3º de la ESO C</t>
   </si>
   <si>
-    <t>ESO4A</t>
-  </si>
-  <si>
     <t>4º de la ESO A</t>
   </si>
   <si>
-    <t>ESO4B</t>
-  </si>
-  <si>
     <t>4º de la ESO B</t>
   </si>
   <si>
-    <t>ESO4C</t>
-  </si>
-  <si>
     <t>4º de la ESO C</t>
   </si>
   <si>
@@ -159,6 +123,42 @@
   </si>
   <si>
     <t>2º de Desarrollo de Aplicaciones Web</t>
+  </si>
+  <si>
+    <t>1ESOA</t>
+  </si>
+  <si>
+    <t>1ESOB</t>
+  </si>
+  <si>
+    <t>1ESOC</t>
+  </si>
+  <si>
+    <t>2ESOA</t>
+  </si>
+  <si>
+    <t>2ESOB</t>
+  </si>
+  <si>
+    <t>2ESOC</t>
+  </si>
+  <si>
+    <t>3ESOA</t>
+  </si>
+  <si>
+    <t>3ESOB</t>
+  </si>
+  <si>
+    <t>3ESOC</t>
+  </si>
+  <si>
+    <t>4ESOA</t>
+  </si>
+  <si>
+    <t>4ESOB</t>
+  </si>
+  <si>
+    <t>4ESOC</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,233 +536,233 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
